--- a/data/pca/factorExposure/factorExposure_2010-03-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01707101315279418</v>
+        <v>0.01701949920627572</v>
       </c>
       <c r="C2">
-        <v>7.371106346919293e-06</v>
+        <v>-0.0009580714434695484</v>
       </c>
       <c r="D2">
-        <v>0.01079423068057203</v>
+        <v>-0.007470179852182426</v>
       </c>
       <c r="E2">
-        <v>0.02039997215691191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0001502592565156107</v>
+      </c>
+      <c r="F2">
+        <v>0.009058317025049103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1236745382371909</v>
+        <v>0.09352707106850597</v>
       </c>
       <c r="C4">
-        <v>0.0364583245650028</v>
+        <v>-0.01578822904819727</v>
       </c>
       <c r="D4">
-        <v>0.05527307258578695</v>
+        <v>-0.08382806776555791</v>
       </c>
       <c r="E4">
-        <v>0.005898615333908206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02961775898008266</v>
+      </c>
+      <c r="F4">
+        <v>-0.0292479157090822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1142486490452104</v>
+        <v>0.1554201821701447</v>
       </c>
       <c r="C6">
-        <v>-0.01953321987315024</v>
+        <v>-0.02464352074077322</v>
       </c>
       <c r="D6">
-        <v>-0.008717057130152325</v>
+        <v>0.02257403845500128</v>
       </c>
       <c r="E6">
-        <v>0.02225099553939009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01073179766071958</v>
+      </c>
+      <c r="F6">
+        <v>-0.04904321082782198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07589522953593579</v>
+        <v>0.05962880383902389</v>
       </c>
       <c r="C7">
-        <v>0.01498281391924837</v>
+        <v>0.001014171274304355</v>
       </c>
       <c r="D7">
-        <v>0.07284409519891939</v>
+        <v>-0.05276217674490831</v>
       </c>
       <c r="E7">
-        <v>0.05094163061196014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.013241747075221</v>
+      </c>
+      <c r="F7">
+        <v>-0.04452662660291939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05080828021499081</v>
+        <v>0.05831033114051844</v>
       </c>
       <c r="C8">
-        <v>0.001661664137024959</v>
+        <v>0.01336527788151315</v>
       </c>
       <c r="D8">
-        <v>0.02195211601258082</v>
+        <v>-0.03162877635342115</v>
       </c>
       <c r="E8">
-        <v>0.02106067742199192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0157089509481463</v>
+      </c>
+      <c r="F8">
+        <v>0.02921025258507974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09456172290154713</v>
+        <v>0.0715061524713288</v>
       </c>
       <c r="C9">
-        <v>0.0435132777767635</v>
+        <v>-0.01171495208169946</v>
       </c>
       <c r="D9">
-        <v>0.03486213695818399</v>
+        <v>-0.08422889518363812</v>
       </c>
       <c r="E9">
-        <v>0.0188766219060325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02377836164344308</v>
+      </c>
+      <c r="F9">
+        <v>-0.04885191155544113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08220571482638039</v>
+        <v>0.09494084467372178</v>
       </c>
       <c r="C10">
-        <v>-0.134212975625146</v>
+        <v>-0.01821234014096032</v>
       </c>
       <c r="D10">
-        <v>-0.125182409016252</v>
+        <v>0.1697865345267787</v>
       </c>
       <c r="E10">
-        <v>0.008849166708948303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.03818006126060901</v>
+      </c>
+      <c r="F10">
+        <v>0.05597126329624384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08631881817172955</v>
+        <v>0.08751586147304201</v>
       </c>
       <c r="C11">
-        <v>0.01745824014108054</v>
+        <v>-0.01146568477659339</v>
       </c>
       <c r="D11">
-        <v>0.05346055163481125</v>
+        <v>-0.1165015803817904</v>
       </c>
       <c r="E11">
-        <v>0.04205520414100461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04754755710997666</v>
+      </c>
+      <c r="F11">
+        <v>-0.02016619600394642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09249085995450451</v>
+        <v>0.09215797261337068</v>
       </c>
       <c r="C12">
-        <v>0.02808369036986038</v>
+        <v>-0.008936760104808813</v>
       </c>
       <c r="D12">
-        <v>0.07454932594121032</v>
+        <v>-0.1278573591931969</v>
       </c>
       <c r="E12">
-        <v>0.04630830818882824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04780282313713145</v>
+      </c>
+      <c r="F12">
+        <v>-0.01904849623700456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04356847294895751</v>
+        <v>0.04388502100750472</v>
       </c>
       <c r="C13">
-        <v>0.03480298109608606</v>
+        <v>-0.004037794899168765</v>
       </c>
       <c r="D13">
-        <v>-0.003354803499390253</v>
+        <v>-0.04880171079259362</v>
       </c>
       <c r="E13">
-        <v>0.00707610971977427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01244931966331503</v>
+      </c>
+      <c r="F13">
+        <v>-0.009285262880960056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02635901812340607</v>
+        <v>0.02255844109392173</v>
       </c>
       <c r="C14">
-        <v>0.002474853836749953</v>
+        <v>-0.014133777146021</v>
       </c>
       <c r="D14">
-        <v>0.008134048100935969</v>
+        <v>-0.03226928523112156</v>
       </c>
       <c r="E14">
-        <v>0.004718042483872926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01769055099638501</v>
+      </c>
+      <c r="F14">
+        <v>-0.0175489753572627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02676623068005046</v>
+        <v>0.03112349682689737</v>
       </c>
       <c r="C15">
-        <v>0.01990230633521585</v>
+        <v>-0.005263762324442843</v>
       </c>
       <c r="D15">
-        <v>0.00436500550988513</v>
+        <v>-0.0448851655714989</v>
       </c>
       <c r="E15">
-        <v>0.0187178946648761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.007434641499132965</v>
+      </c>
+      <c r="F15">
+        <v>-0.02808895287695742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.09394965170038728</v>
+        <v>0.07306047269082795</v>
       </c>
       <c r="C16">
-        <v>0.01312376118494768</v>
+        <v>-0.00294824977838303</v>
       </c>
       <c r="D16">
-        <v>0.07022609567722579</v>
+        <v>-0.123472604381328</v>
       </c>
       <c r="E16">
-        <v>0.05152203179092564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0629943651026066</v>
+      </c>
+      <c r="F16">
+        <v>-0.02525645757876581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02564876550916412</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003975484444457197</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02236448845182736</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.004988079742701182</v>
+      </c>
+      <c r="F18">
+        <v>0.01670899384846814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05067971968929501</v>
+        <v>0.06040955163878325</v>
       </c>
       <c r="C20">
-        <v>2.910095956369769e-05</v>
+        <v>-0.0003757057451063755</v>
       </c>
       <c r="D20">
-        <v>0.04615387436971339</v>
+        <v>-0.07680906336519869</v>
       </c>
       <c r="E20">
-        <v>-0.002511727629603437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05574414275561432</v>
+      </c>
+      <c r="F20">
+        <v>-0.02361717040736847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02131733574397199</v>
+        <v>0.03886531236382759</v>
       </c>
       <c r="C21">
-        <v>-0.005212355582584148</v>
+        <v>-0.006712141802469203</v>
       </c>
       <c r="D21">
-        <v>0.002497654320479299</v>
+        <v>-0.03560942467988012</v>
       </c>
       <c r="E21">
-        <v>-0.02941196533031109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.007955843418019522</v>
+      </c>
+      <c r="F21">
+        <v>0.02065955950597029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02832071273026911</v>
+        <v>0.04338664770571755</v>
       </c>
       <c r="C22">
-        <v>-0.01082053164180001</v>
+        <v>-0.001146383181810338</v>
       </c>
       <c r="D22">
-        <v>-0.02020802550738471</v>
+        <v>-0.002932107041937821</v>
       </c>
       <c r="E22">
-        <v>0.06279106641713841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02873774771998025</v>
+      </c>
+      <c r="F22">
+        <v>0.009977364648140235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02840928058583031</v>
+        <v>0.04342016928030081</v>
       </c>
       <c r="C23">
-        <v>-0.010927519788178</v>
+        <v>-0.001167231929183683</v>
       </c>
       <c r="D23">
-        <v>-0.0197976279057872</v>
+        <v>-0.00302493190898626</v>
       </c>
       <c r="E23">
-        <v>0.0648218972289222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02904695694469875</v>
+      </c>
+      <c r="F23">
+        <v>0.009433975053505276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.09690776471340125</v>
+        <v>0.07918128780503211</v>
       </c>
       <c r="C24">
-        <v>0.01813531140881455</v>
+        <v>-0.003032814666894812</v>
       </c>
       <c r="D24">
-        <v>0.07195489409911554</v>
+        <v>-0.1199526552164683</v>
       </c>
       <c r="E24">
-        <v>0.04145641602835589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05051211383965046</v>
+      </c>
+      <c r="F24">
+        <v>-0.02258185006315815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09765597301923015</v>
+        <v>0.08473966921066649</v>
       </c>
       <c r="C25">
-        <v>0.0104560297449425</v>
+        <v>-0.005269154474722473</v>
       </c>
       <c r="D25">
-        <v>0.0553980878489829</v>
+        <v>-0.1087524666883741</v>
       </c>
       <c r="E25">
-        <v>0.04674885437689751</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03326919392483766</v>
+      </c>
+      <c r="F25">
+        <v>-0.0263888924059346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.03845644236199505</v>
+        <v>0.05584191816878757</v>
       </c>
       <c r="C26">
-        <v>-0.02719044113798054</v>
+        <v>-0.01445270278292208</v>
       </c>
       <c r="D26">
-        <v>-8.386969704405361e-05</v>
+        <v>-0.04165021138494244</v>
       </c>
       <c r="E26">
-        <v>0.003151089593990203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02578641360147002</v>
+      </c>
+      <c r="F26">
+        <v>0.009415920323205857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08172811057663688</v>
+        <v>0.1429505104567695</v>
       </c>
       <c r="C28">
-        <v>-0.1755182126619567</v>
+        <v>-0.017098499951269</v>
       </c>
       <c r="D28">
-        <v>-0.2690883692861017</v>
+        <v>0.2649242374344039</v>
       </c>
       <c r="E28">
-        <v>0.02434191885465812</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06846548530613634</v>
+      </c>
+      <c r="F28">
+        <v>-0.01990660083638895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02919758086842391</v>
+        <v>0.02697890161958265</v>
       </c>
       <c r="C29">
-        <v>0.01103023253133083</v>
+        <v>-0.008381307588737683</v>
       </c>
       <c r="D29">
-        <v>0.002970823723096285</v>
+        <v>-0.03132992279938089</v>
       </c>
       <c r="E29">
-        <v>0.007902582092752169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01152248221791257</v>
+      </c>
+      <c r="F29">
+        <v>0.01223713172299747</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.117914083538523</v>
+        <v>0.06185750145791316</v>
       </c>
       <c r="C30">
-        <v>0.05941960525598836</v>
+        <v>-0.004517406500469947</v>
       </c>
       <c r="D30">
-        <v>0.06174868434522694</v>
+        <v>-0.08636483785762296</v>
       </c>
       <c r="E30">
-        <v>0.04061652685502334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02352245201902201</v>
+      </c>
+      <c r="F30">
+        <v>-0.09295251049614375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02986406376399485</v>
+        <v>0.04893270167939606</v>
       </c>
       <c r="C31">
-        <v>0.003345610824000064</v>
+        <v>-0.01501556547728288</v>
       </c>
       <c r="D31">
-        <v>0.03146455854497473</v>
+        <v>-0.02641809880022392</v>
       </c>
       <c r="E31">
-        <v>0.02118847154734364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02728593286046599</v>
+      </c>
+      <c r="F31">
+        <v>0.005778939904937865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06106425282144388</v>
+        <v>0.04871587469666473</v>
       </c>
       <c r="C32">
-        <v>-0.009365380938290853</v>
+        <v>0.0006534089966170523</v>
       </c>
       <c r="D32">
-        <v>0.02659909400502659</v>
+        <v>-0.03369112271266366</v>
       </c>
       <c r="E32">
-        <v>0.006971645104140094</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.03043145088899868</v>
+      </c>
+      <c r="F32">
+        <v>-0.007466063957786709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1065990136052492</v>
+        <v>0.08945484836477277</v>
       </c>
       <c r="C33">
-        <v>0.04251670406501214</v>
+        <v>-0.008511565870986676</v>
       </c>
       <c r="D33">
-        <v>0.05308120835922345</v>
+        <v>-0.09781912497287085</v>
       </c>
       <c r="E33">
-        <v>0.08796368185168509</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0458218799325265</v>
+      </c>
+      <c r="F33">
+        <v>-0.03821358725902645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08835122853185481</v>
+        <v>0.06776078127966671</v>
       </c>
       <c r="C34">
-        <v>0.0108950286091086</v>
+        <v>-0.01180635387157264</v>
       </c>
       <c r="D34">
-        <v>0.0632233386643351</v>
+        <v>-0.1037516708966182</v>
       </c>
       <c r="E34">
-        <v>0.04631986612145226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03501779046041564</v>
+      </c>
+      <c r="F34">
+        <v>-0.03592486978529022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.0143913698677895</v>
+        <v>0.02481481326914054</v>
       </c>
       <c r="C35">
-        <v>0.0130608742101838</v>
+        <v>-0.002351941927269066</v>
       </c>
       <c r="D35">
-        <v>0.002558758377447774</v>
+        <v>-0.0121955318371804</v>
       </c>
       <c r="E35">
-        <v>0.00705125454885721</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01072106051410542</v>
+      </c>
+      <c r="F35">
+        <v>-0.006740136159185471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02166891329940778</v>
+        <v>0.02522009665274054</v>
       </c>
       <c r="C36">
-        <v>0.01060412229377146</v>
+        <v>-0.007433355342723547</v>
       </c>
       <c r="D36">
-        <v>-0.002857419906725238</v>
+        <v>-0.03858857046877541</v>
       </c>
       <c r="E36">
-        <v>0.001384577543562821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.01677164388061097</v>
+      </c>
+      <c r="F36">
+        <v>-0.01331901232138607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.006514993150208946</v>
+        <v>0.00149490046278451</v>
       </c>
       <c r="C38">
-        <v>0.002469942117712325</v>
+        <v>-0.0002274945927008915</v>
       </c>
       <c r="D38">
-        <v>0.00388259850792615</v>
+        <v>-0.0008409529746274361</v>
       </c>
       <c r="E38">
-        <v>0.002743131443099061</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001215139799400006</v>
+      </c>
+      <c r="F38">
+        <v>0.001021113489691172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1522453143932938</v>
+        <v>0.1069725780974765</v>
       </c>
       <c r="C39">
-        <v>0.04939181634898974</v>
+        <v>-0.01668917620848803</v>
       </c>
       <c r="D39">
-        <v>0.1074152777685945</v>
+        <v>-0.1540680439957468</v>
       </c>
       <c r="E39">
-        <v>0.07814633509331106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06090134061771309</v>
+      </c>
+      <c r="F39">
+        <v>-0.02405898941824241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009342238936840101</v>
+        <v>0.0370813405650197</v>
       </c>
       <c r="C40">
-        <v>0.001491264433907931</v>
+        <v>-0.007231772723891984</v>
       </c>
       <c r="D40">
-        <v>0.01636585081000514</v>
+        <v>-0.03294657087522112</v>
       </c>
       <c r="E40">
-        <v>-0.01201857908998626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.002495551800520665</v>
+      </c>
+      <c r="F40">
+        <v>0.01522958890476494</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0184329971003457</v>
+        <v>0.0265115009589733</v>
       </c>
       <c r="C41">
-        <v>-0.02732548680332807</v>
+        <v>-0.00651799729941989</v>
       </c>
       <c r="D41">
-        <v>0.006447972993866281</v>
+        <v>-0.01086907272896686</v>
       </c>
       <c r="E41">
-        <v>0.008055104019274905</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01216317781397543</v>
+      </c>
+      <c r="F41">
+        <v>0.009204596481044514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02763382515323099</v>
+        <v>0.04020872036713628</v>
       </c>
       <c r="C43">
-        <v>-0.02508500034108499</v>
+        <v>-0.00665566498592091</v>
       </c>
       <c r="D43">
-        <v>0.0211905085747075</v>
+        <v>-0.02019852058842302</v>
       </c>
       <c r="E43">
-        <v>0.03437737800373535</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02403318794898336</v>
+      </c>
+      <c r="F43">
+        <v>0.01324309290675888</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1403711808475646</v>
+        <v>0.07606050820612346</v>
       </c>
       <c r="C44">
-        <v>0.06259631609319007</v>
+        <v>-0.02124145770869541</v>
       </c>
       <c r="D44">
-        <v>0.07930880083975327</v>
+        <v>-0.09817182834407572</v>
       </c>
       <c r="E44">
-        <v>0.04945400917439347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.07335444309651017</v>
+      </c>
+      <c r="F44">
+        <v>-0.1711889655915945</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01463265527344258</v>
+        <v>0.02300380277722893</v>
       </c>
       <c r="C46">
-        <v>-0.02079264225714701</v>
+        <v>-0.003536248186949401</v>
       </c>
       <c r="D46">
-        <v>-0.001123159517972852</v>
+        <v>-0.01242728011880332</v>
       </c>
       <c r="E46">
-        <v>0.03389943755194372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0223637626412257</v>
+      </c>
+      <c r="F46">
+        <v>0.0002388603199000858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03842897302092322</v>
+        <v>0.05132290413131563</v>
       </c>
       <c r="C47">
-        <v>-0.009964179124152107</v>
+        <v>-0.00327045390711048</v>
       </c>
       <c r="D47">
-        <v>0.006549821248491237</v>
+        <v>-0.01293567771178404</v>
       </c>
       <c r="E47">
-        <v>0.006732351205176209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02272661909890287</v>
+      </c>
+      <c r="F47">
+        <v>0.03950418623033441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.03747859405043347</v>
+        <v>0.04791005088871733</v>
       </c>
       <c r="C48">
-        <v>0.01332236700842561</v>
+        <v>-0.002629790771372282</v>
       </c>
       <c r="D48">
-        <v>-0.00286827881968476</v>
+        <v>-0.05149795890337932</v>
       </c>
       <c r="E48">
-        <v>0.008285822373743573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.005242087524278302</v>
+      </c>
+      <c r="F48">
+        <v>-0.006255408800367025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2180339926766043</v>
+        <v>0.2025102988402839</v>
       </c>
       <c r="C49">
-        <v>-0.05765026383935171</v>
+        <v>-0.01762315773184617</v>
       </c>
       <c r="D49">
-        <v>0.02730411745863677</v>
+        <v>0.01102213760266407</v>
       </c>
       <c r="E49">
-        <v>-0.02542408629962964</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03235329511669004</v>
+      </c>
+      <c r="F49">
+        <v>-0.02890515229669891</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03858852915821603</v>
+        <v>0.04859970446886576</v>
       </c>
       <c r="C50">
-        <v>-0.002476614875871445</v>
+        <v>-0.01104356331837676</v>
       </c>
       <c r="D50">
-        <v>0.03757326217710968</v>
+        <v>-0.02595131205853366</v>
       </c>
       <c r="E50">
-        <v>0.01564376292320533</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0291379898223037</v>
+      </c>
+      <c r="F50">
+        <v>-0.00635411014564113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.008959618054337338</v>
+        <v>0.002135323954994945</v>
       </c>
       <c r="C51">
-        <v>-0.008819088588881566</v>
+        <v>-0.0005443576048262934</v>
       </c>
       <c r="D51">
-        <v>-0.01268444037167654</v>
+        <v>0.002122100649780189</v>
       </c>
       <c r="E51">
-        <v>0.01517838813406969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-2.200531163232665e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.004148779738260449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1317794901582493</v>
+        <v>0.1451753458043868</v>
       </c>
       <c r="C52">
-        <v>0.07139306662174409</v>
+        <v>-0.01393765222651655</v>
       </c>
       <c r="D52">
-        <v>0.06108497996321186</v>
+        <v>-0.0491769312733065</v>
       </c>
       <c r="E52">
-        <v>-0.000393077151277742</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02405197747372337</v>
+      </c>
+      <c r="F52">
+        <v>-0.03862011861212997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1549686264296935</v>
+        <v>0.1737277722957576</v>
       </c>
       <c r="C53">
-        <v>0.01504210553667198</v>
+        <v>-0.01688695730214129</v>
       </c>
       <c r="D53">
-        <v>0.01408217231908452</v>
+        <v>-0.008178254545665908</v>
       </c>
       <c r="E53">
-        <v>-0.01512383203646394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.034813814539652</v>
+      </c>
+      <c r="F53">
+        <v>-0.06926931287389426</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04945990079505841</v>
+        <v>0.02220997550066602</v>
       </c>
       <c r="C54">
-        <v>0.001713433784443036</v>
+        <v>-0.01225152052278571</v>
       </c>
       <c r="D54">
-        <v>0.02016350717220022</v>
+        <v>-0.0333687995145601</v>
       </c>
       <c r="E54">
-        <v>0.0161483158069427</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01456757850879319</v>
+      </c>
+      <c r="F54">
+        <v>0.003038196931234904</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08741149690965738</v>
+        <v>0.114455633370117</v>
       </c>
       <c r="C55">
-        <v>0.0305936070273415</v>
+        <v>-0.01548319533851149</v>
       </c>
       <c r="D55">
-        <v>0.00609151723463365</v>
+        <v>-0.01040606544699916</v>
       </c>
       <c r="E55">
-        <v>0.03885872209437129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03115388224747007</v>
+      </c>
+      <c r="F55">
+        <v>-0.04529745001957129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1585558091313286</v>
+        <v>0.1774763803144427</v>
       </c>
       <c r="C56">
-        <v>0.01914209158060385</v>
+        <v>-0.01430653340508291</v>
       </c>
       <c r="D56">
-        <v>0.04691920577084383</v>
+        <v>-0.00591085170818738</v>
       </c>
       <c r="E56">
-        <v>0.01783731367104596</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04070649088062381</v>
+      </c>
+      <c r="F56">
+        <v>-0.04744846687126424</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04178971204268642</v>
+        <v>0.04618938457302472</v>
       </c>
       <c r="C58">
-        <v>-0.01079287590336889</v>
+        <v>-0.001308409732529488</v>
       </c>
       <c r="D58">
-        <v>0.006121467247732304</v>
+        <v>-0.06725400951635517</v>
       </c>
       <c r="E58">
-        <v>-0.01186706118842109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02472193858058417</v>
+      </c>
+      <c r="F58">
+        <v>0.04110303726585995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1475357935981437</v>
+        <v>0.1719685526531426</v>
       </c>
       <c r="C59">
-        <v>-0.1638190229418387</v>
+        <v>-0.01761820168130087</v>
       </c>
       <c r="D59">
-        <v>-0.2301211446843271</v>
+        <v>0.2225295240319022</v>
       </c>
       <c r="E59">
-        <v>0.03204222946504813</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04700957846711075</v>
+      </c>
+      <c r="F59">
+        <v>0.03063210235038352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2790146687729728</v>
+        <v>0.2351396311480843</v>
       </c>
       <c r="C60">
-        <v>0.04769885396941211</v>
+        <v>0.004190202799037283</v>
       </c>
       <c r="D60">
-        <v>0.08463367948541942</v>
+        <v>-0.04335487119523278</v>
       </c>
       <c r="E60">
-        <v>-0.0798627691097059</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01104040441513591</v>
+      </c>
+      <c r="F60">
+        <v>0.02346858114514027</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1187436164096445</v>
+        <v>0.0832745271246329</v>
       </c>
       <c r="C61">
-        <v>0.04200461067820178</v>
+        <v>-0.01275388494057476</v>
       </c>
       <c r="D61">
-        <v>0.0532859983792127</v>
+        <v>-0.115923406993589</v>
       </c>
       <c r="E61">
-        <v>0.06097276966624524</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04093018811715152</v>
+      </c>
+      <c r="F61">
+        <v>-0.01230467547049459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1618522514243084</v>
+        <v>0.1699434634011771</v>
       </c>
       <c r="C62">
-        <v>0.01478472967215816</v>
+        <v>-0.01787543686484644</v>
       </c>
       <c r="D62">
-        <v>0.02617418165136279</v>
+        <v>-0.01034491295563249</v>
       </c>
       <c r="E62">
-        <v>0.00474473376005474</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03692064029830038</v>
+      </c>
+      <c r="F62">
+        <v>-0.02927340913162364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04293419431414629</v>
+        <v>0.04300572268878956</v>
       </c>
       <c r="C63">
-        <v>0.008491425460996464</v>
+        <v>-0.002618560326689323</v>
       </c>
       <c r="D63">
-        <v>-0.002522611091112388</v>
+        <v>-0.05643636195901954</v>
       </c>
       <c r="E63">
-        <v>0.02321010468562394</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02051066604905651</v>
+      </c>
+      <c r="F63">
+        <v>-0.006701132506533442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09075515329298398</v>
+        <v>0.110893871284511</v>
       </c>
       <c r="C64">
-        <v>-9.661398924114355e-05</v>
+        <v>-0.01113772078693521</v>
       </c>
       <c r="D64">
-        <v>0.01830138078191654</v>
+        <v>-0.04132852713879049</v>
       </c>
       <c r="E64">
-        <v>-0.002502268427787877</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02039713161509164</v>
+      </c>
+      <c r="F64">
+        <v>-0.02807911283641868</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1146304835761363</v>
+        <v>0.1466822199425636</v>
       </c>
       <c r="C65">
-        <v>0.009594184440930438</v>
+        <v>-0.03125931231638564</v>
       </c>
       <c r="D65">
-        <v>-0.02335847028095261</v>
+        <v>0.04155931692927053</v>
       </c>
       <c r="E65">
-        <v>-0.003611578866592183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.001350717373999757</v>
+      </c>
+      <c r="F65">
+        <v>-0.04355115206242906</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1742497637758809</v>
+        <v>0.1276711312872156</v>
       </c>
       <c r="C66">
-        <v>0.04532914058842621</v>
+        <v>-0.01450341470137203</v>
       </c>
       <c r="D66">
-        <v>0.1205389381604118</v>
+        <v>-0.1434225672954288</v>
       </c>
       <c r="E66">
-        <v>0.08417583686358618</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06825627834518094</v>
+      </c>
+      <c r="F66">
+        <v>-0.02906472018664497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07578693097802985</v>
+        <v>0.06368969608820396</v>
       </c>
       <c r="C67">
-        <v>0.03156291593814625</v>
+        <v>-0.002923557495111238</v>
       </c>
       <c r="D67">
-        <v>0.01422776122535113</v>
+        <v>-0.05590180479885478</v>
       </c>
       <c r="E67">
-        <v>0.08055349308045406</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01807646953644814</v>
+      </c>
+      <c r="F67">
+        <v>0.0399222769564183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.07821285001283515</v>
+        <v>0.1172104602116694</v>
       </c>
       <c r="C68">
-        <v>-0.1556882193855568</v>
+        <v>-0.02746575540838752</v>
       </c>
       <c r="D68">
-        <v>-0.2324867568685394</v>
+        <v>0.2609922302534104</v>
       </c>
       <c r="E68">
-        <v>0.01478369802402828</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08524256895850195</v>
+      </c>
+      <c r="F68">
+        <v>-0.02023965459757163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03369663706814924</v>
+        <v>0.03909534597266134</v>
       </c>
       <c r="C69">
-        <v>0.009806498569694115</v>
+        <v>-0.0008633164197847217</v>
       </c>
       <c r="D69">
-        <v>-0.0107244127212359</v>
+        <v>-0.008476741019389581</v>
       </c>
       <c r="E69">
-        <v>0.02963746426098163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02383004401129981</v>
+      </c>
+      <c r="F69">
+        <v>0.00585806179849694</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.02678518927626296</v>
+        <v>0.06264129195335223</v>
       </c>
       <c r="C70">
-        <v>0.007927199687485493</v>
+        <v>0.02865563909940789</v>
       </c>
       <c r="D70">
-        <v>-0.02968953615705409</v>
+        <v>-0.02943768735535485</v>
       </c>
       <c r="E70">
-        <v>0.0360596467049781</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.0483470169880991</v>
+      </c>
+      <c r="F70">
+        <v>0.2348965494647691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.08874279516587008</v>
+        <v>0.1363754263058812</v>
       </c>
       <c r="C71">
-        <v>-0.1641077547472188</v>
+        <v>-0.03195719129763409</v>
       </c>
       <c r="D71">
-        <v>-0.2532772434524384</v>
+        <v>0.2749991481575335</v>
       </c>
       <c r="E71">
-        <v>0.02484574076229729</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09515482172073347</v>
+      </c>
+      <c r="F71">
+        <v>-0.02423609530518061</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1342466963969905</v>
+        <v>0.1412898144546785</v>
       </c>
       <c r="C72">
-        <v>-0.02868119777886605</v>
+        <v>-0.02493243147360528</v>
       </c>
       <c r="D72">
-        <v>-0.006162953676712257</v>
+        <v>-0.001775628813203858</v>
       </c>
       <c r="E72">
-        <v>0.01960442726354767</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.04311324241974598</v>
+      </c>
+      <c r="F72">
+        <v>-0.02968820503891239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2263268352265629</v>
+        <v>0.2016625001749269</v>
       </c>
       <c r="C73">
-        <v>-0.01206335304880849</v>
+        <v>-0.01183894835724173</v>
       </c>
       <c r="D73">
-        <v>0.02773547557068835</v>
+        <v>-0.01436771617877487</v>
       </c>
       <c r="E73">
-        <v>0.04987482242078268</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06542206646531301</v>
+      </c>
+      <c r="F73">
+        <v>-0.02504326411864737</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1089444961768446</v>
+        <v>0.09439721681612862</v>
       </c>
       <c r="C74">
-        <v>-0.002694078224565917</v>
+        <v>-0.01219041423587002</v>
       </c>
       <c r="D74">
-        <v>0.03911397083314474</v>
+        <v>-0.01999127409467305</v>
       </c>
       <c r="E74">
-        <v>0.02368100939057086</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04845770953008837</v>
+      </c>
+      <c r="F74">
+        <v>-0.05074687669746671</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1281193693036425</v>
+        <v>0.1291108053003576</v>
       </c>
       <c r="C75">
-        <v>0.01187315879588224</v>
+        <v>-0.02663162070576424</v>
       </c>
       <c r="D75">
-        <v>0.0548678729542182</v>
+        <v>-0.03292795856750853</v>
       </c>
       <c r="E75">
-        <v>0.01763025575676702</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.060770275209104</v>
+      </c>
+      <c r="F75">
+        <v>-0.01501605417162431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01385384489680665</v>
+        <v>0.002975898792617645</v>
       </c>
       <c r="C76">
-        <v>-0.008792223878903186</v>
+        <v>-0.0007347446763162849</v>
       </c>
       <c r="D76">
-        <v>-0.01215893560501973</v>
+        <v>0.002210861015651058</v>
       </c>
       <c r="E76">
-        <v>0.01030377067082151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.000332048049565897</v>
+      </c>
+      <c r="F76">
+        <v>-0.003845290781879569</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08237548671693549</v>
+        <v>0.07915571717060492</v>
       </c>
       <c r="C77">
-        <v>0.05840607202740124</v>
+        <v>-0.008671727119343246</v>
       </c>
       <c r="D77">
-        <v>0.09490550106311949</v>
+        <v>-0.1190093545694269</v>
       </c>
       <c r="E77">
-        <v>-0.006509795698993672</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03945901309947311</v>
+      </c>
+      <c r="F77">
+        <v>-0.02920100605753768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09200212437833581</v>
+        <v>0.1032058626103617</v>
       </c>
       <c r="C78">
-        <v>-0.09627147724226522</v>
+        <v>-0.03982752911309794</v>
       </c>
       <c r="D78">
-        <v>0.07397237303181065</v>
+        <v>-0.1173828684333792</v>
       </c>
       <c r="E78">
-        <v>0.1803674020444552</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0794525094734513</v>
+      </c>
+      <c r="F78">
+        <v>-0.05859918188218389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1405022618706141</v>
+        <v>0.1642379524786709</v>
       </c>
       <c r="C79">
-        <v>-0.005758115943119914</v>
+        <v>-0.02059603826842872</v>
       </c>
       <c r="D79">
-        <v>0.06988326483707021</v>
+        <v>-0.01916450158779169</v>
       </c>
       <c r="E79">
-        <v>-0.002865413017261284</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05004028783831037</v>
+      </c>
+      <c r="F79">
+        <v>-0.006396683693936624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08402091888670989</v>
+        <v>0.08161701024125752</v>
       </c>
       <c r="C80">
-        <v>0.05565437980386602</v>
+        <v>0.0006973830660156975</v>
       </c>
       <c r="D80">
-        <v>0.05059021563341506</v>
+        <v>-0.05678906727182038</v>
       </c>
       <c r="E80">
-        <v>0.06186098430160618</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03557685174343624</v>
+      </c>
+      <c r="F80">
+        <v>0.02627408800464155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1451573151104677</v>
+        <v>0.1233936603672184</v>
       </c>
       <c r="C81">
-        <v>0.01135845395943224</v>
+        <v>-0.0304051434048438</v>
       </c>
       <c r="D81">
-        <v>0.07201335652649263</v>
+        <v>-0.01753680206836539</v>
       </c>
       <c r="E81">
-        <v>0.03398692494782778</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0603272839507058</v>
+      </c>
+      <c r="F81">
+        <v>-0.01057392330563185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1711253455480078</v>
+        <v>0.1640268512711794</v>
       </c>
       <c r="C82">
-        <v>0.03724260897424058</v>
+        <v>-0.02266226008102204</v>
       </c>
       <c r="D82">
-        <v>0.05217256684445609</v>
+        <v>-0.008719386559096366</v>
       </c>
       <c r="E82">
-        <v>0.02747790668364046</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.03324759665057112</v>
+      </c>
+      <c r="F82">
+        <v>-0.07174209180874598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07861236875298265</v>
+        <v>0.06199984035477615</v>
       </c>
       <c r="C83">
-        <v>0.03278475883467461</v>
+        <v>-0.003161563049525422</v>
       </c>
       <c r="D83">
-        <v>0.02847337515428856</v>
+        <v>-0.04984894841743197</v>
       </c>
       <c r="E83">
-        <v>-0.03999765562326415</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.005744493815619874</v>
+      </c>
+      <c r="F83">
+        <v>0.03955300736139664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07198910186264884</v>
+        <v>0.0587102964494795</v>
       </c>
       <c r="C84">
-        <v>0.01394010190688078</v>
+        <v>-0.01074208682039677</v>
       </c>
       <c r="D84">
-        <v>0.002866715417959977</v>
+        <v>-0.06716185562842915</v>
       </c>
       <c r="E84">
-        <v>-0.007450071987370152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.005071179338596607</v>
+      </c>
+      <c r="F84">
+        <v>-0.00718657498407137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1263373512405767</v>
+        <v>0.1387092941757528</v>
       </c>
       <c r="C85">
-        <v>0.003812221652086529</v>
+        <v>-0.02635730410876212</v>
       </c>
       <c r="D85">
-        <v>0.03342075996524566</v>
+        <v>-0.01327901486098371</v>
       </c>
       <c r="E85">
-        <v>0.01156088916590005</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.04098077781540008</v>
+      </c>
+      <c r="F85">
+        <v>-0.04588759236690654</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1323554255659128</v>
+        <v>0.09598400796625732</v>
       </c>
       <c r="C86">
-        <v>-0.2425035703476769</v>
+        <v>0.005478340348499307</v>
       </c>
       <c r="D86">
-        <v>0.2023518019255238</v>
+        <v>-0.03463553135966199</v>
       </c>
       <c r="E86">
-        <v>-0.8856875747721301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1666802073664655</v>
+      </c>
+      <c r="F86">
+        <v>0.8981707887029091</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1131124072906664</v>
+        <v>0.09568197241927054</v>
       </c>
       <c r="C87">
-        <v>0.1052233269903188</v>
+        <v>-0.0221090544361858</v>
       </c>
       <c r="D87">
-        <v>0.02929285226748328</v>
+        <v>-0.09317398779197268</v>
       </c>
       <c r="E87">
-        <v>0.004339122951662634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05426241339400627</v>
+      </c>
+      <c r="F87">
+        <v>-0.06908544938923475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.04684520139483475</v>
+        <v>0.06103426240760301</v>
       </c>
       <c r="C88">
-        <v>-0.00176026372541576</v>
+        <v>-0.002407819387208017</v>
       </c>
       <c r="D88">
-        <v>0.029244011751474</v>
+        <v>-0.05088691553684011</v>
       </c>
       <c r="E88">
-        <v>0.04143172531262804</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02595063142364904</v>
+      </c>
+      <c r="F88">
+        <v>-0.009335182796693185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1364015734705252</v>
+        <v>0.1349605551904041</v>
       </c>
       <c r="C89">
-        <v>-0.208598715591997</v>
+        <v>-0.009827859424815146</v>
       </c>
       <c r="D89">
-        <v>-0.3041640575710083</v>
+        <v>0.2533955870630332</v>
       </c>
       <c r="E89">
-        <v>0.003423423748229166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08919674347661025</v>
+      </c>
+      <c r="F89">
+        <v>-0.007177012232455026</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1012943393661433</v>
+        <v>0.1482216374523045</v>
       </c>
       <c r="C90">
-        <v>-0.1670385791471842</v>
+        <v>-0.02761608570814595</v>
       </c>
       <c r="D90">
-        <v>-0.2471361095462785</v>
+        <v>0.2664783161900015</v>
       </c>
       <c r="E90">
-        <v>0.01283441620108642</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1092985888180293</v>
+      </c>
+      <c r="F90">
+        <v>-0.009543594227152995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08913899161595117</v>
+        <v>0.1198264342280355</v>
       </c>
       <c r="C91">
-        <v>-0.0007826369632149954</v>
+        <v>-0.01705947835382917</v>
       </c>
       <c r="D91">
-        <v>0.03210297888851598</v>
+        <v>0.01000664233840369</v>
       </c>
       <c r="E91">
-        <v>-0.005385061204327444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05802613040268412</v>
+      </c>
+      <c r="F91">
+        <v>0.01174161654383204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.118879526623386</v>
+        <v>0.1497962804087996</v>
       </c>
       <c r="C92">
-        <v>-0.1674078462392851</v>
+        <v>-0.01912242933334363</v>
       </c>
       <c r="D92">
-        <v>-0.2818934809618162</v>
+        <v>0.2903460414573154</v>
       </c>
       <c r="E92">
-        <v>-0.002288575293451975</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1024479585727294</v>
+      </c>
+      <c r="F92">
+        <v>-0.003833901059847815</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1015334685565504</v>
+        <v>0.1514751697196409</v>
       </c>
       <c r="C93">
-        <v>-0.1870360591512688</v>
+        <v>-0.02375763571752629</v>
       </c>
       <c r="D93">
-        <v>-0.2760221167153321</v>
+        <v>0.2661145948543683</v>
       </c>
       <c r="E93">
-        <v>-3.654644202530896e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07645244134207596</v>
+      </c>
+      <c r="F93">
+        <v>-0.01019108198820067</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1510116463688228</v>
+        <v>0.1322275958004395</v>
       </c>
       <c r="C94">
-        <v>0.006027996274366045</v>
+        <v>-0.02373729729581961</v>
       </c>
       <c r="D94">
-        <v>0.04638561230068322</v>
+        <v>-0.04450907217183368</v>
       </c>
       <c r="E94">
-        <v>0.07031567808609479</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06101629295591748</v>
+      </c>
+      <c r="F94">
+        <v>-0.03384778433030464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1153418043973186</v>
+        <v>0.1258973772648416</v>
       </c>
       <c r="C95">
-        <v>0.004786130615361018</v>
+        <v>-0.004727150317782714</v>
       </c>
       <c r="D95">
-        <v>0.03927538959773657</v>
+        <v>-0.09269977031395617</v>
       </c>
       <c r="E95">
-        <v>0.04237268302063282</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04616711261853292</v>
+      </c>
+      <c r="F95">
+        <v>0.009772935830588299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01406942614750435</v>
+        <v>0.09946720444972278</v>
       </c>
       <c r="C96">
-        <v>4.926272587023876e-05</v>
+        <v>0.9887471335360637</v>
       </c>
       <c r="D96">
-        <v>0.0004695189163719934</v>
+        <v>0.03517241077519664</v>
       </c>
       <c r="E96">
-        <v>0.002602952158740505</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05783073675944907</v>
+      </c>
+      <c r="F96">
+        <v>-0.04225472135787046</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1760704420445776</v>
+        <v>0.1898027261564771</v>
       </c>
       <c r="C97">
-        <v>-0.04561331754752888</v>
+        <v>0.009336072215120259</v>
       </c>
       <c r="D97">
-        <v>0.02710694451488601</v>
+        <v>0.01898143263967911</v>
       </c>
       <c r="E97">
-        <v>0.05762648220684288</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.009615809733865152</v>
+      </c>
+      <c r="F97">
+        <v>0.09955983098469372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2505980814246896</v>
+        <v>0.2056902448874713</v>
       </c>
       <c r="C98">
-        <v>0.03418408405790254</v>
+        <v>-0.007316922429189006</v>
       </c>
       <c r="D98">
-        <v>-0.02868839760655556</v>
+        <v>-0.007821694600226187</v>
       </c>
       <c r="E98">
-        <v>-0.1060213708668615</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09571911905278703</v>
+      </c>
+      <c r="F98">
+        <v>0.1001026789921819</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04866441946988474</v>
+        <v>0.05597811835427766</v>
       </c>
       <c r="C99">
-        <v>-0.01670796899717662</v>
+        <v>0.00434475535716778</v>
       </c>
       <c r="D99">
-        <v>0.001670659364262046</v>
+        <v>-0.03825930098842615</v>
       </c>
       <c r="E99">
-        <v>0.04972518168325212</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02490485855588816</v>
+      </c>
+      <c r="F99">
+        <v>-0.002927612352607275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.118091677068128</v>
+        <v>0.1243902631149415</v>
       </c>
       <c r="C100">
-        <v>0.777820881493768</v>
+        <v>0.05187492135380756</v>
       </c>
       <c r="D100">
-        <v>-0.4931448745067115</v>
+        <v>-0.3445461244047652</v>
       </c>
       <c r="E100">
-        <v>-0.2561811192318417</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.893665083219539</v>
+      </c>
+      <c r="F100">
+        <v>0.09073370261281476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02912392373310526</v>
+        <v>0.02690528506525568</v>
       </c>
       <c r="C101">
-        <v>0.01103682393872149</v>
+        <v>-0.008385331356148478</v>
       </c>
       <c r="D101">
-        <v>0.003032243851891503</v>
+        <v>-0.03102904750014847</v>
       </c>
       <c r="E101">
-        <v>0.008979984666716442</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01104328712800823</v>
+      </c>
+      <c r="F101">
+        <v>0.01366457380353688</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
